--- a/config_7.27/activity_ty_task_config.xlsx
+++ b/config_7.27/activity_ty_task_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="260">
   <si>
     <t>index|索引</t>
   </si>
@@ -32,6 +37,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -42,6 +48,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -60,6 +67,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -70,6 +78,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -179,9 +188,6 @@
     <t>task_index|任务们</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-  </si>
-  <si>
     <t>30,31,32,33,34,35,36,37</t>
   </si>
   <si>
@@ -260,6 +266,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -270,6 +277,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -403,9 +411,6 @@
     <t>在商城中购买3次998元</t>
   </si>
   <si>
-    <t>"jing_bi","prop_web_chip_huafei","swjl_2",</t>
-  </si>
-  <si>
     <t>"4000000","900","肩颈按摩仪"</t>
   </si>
   <si>
@@ -495,6 +500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -505,6 +511,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -709,6 +716,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -718,6 +726,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>00万金币</t>
@@ -738,6 +747,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -747,6 +757,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>000万金币</t>
@@ -767,18 +778,397 @@
   <si>
     <t>"手帕纸10包",</t>
   </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>mfhf_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>mfhf_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型--normal</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型--cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计消耗10万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计消耗100万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计使用10次道具</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中累计击杀10条彩金鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中3万及以上档次累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中3万及以上档次累计消除100个BAR</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中1万及以上档次消除1次孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中1万及以上档次消除1次唐僧</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中1万及以上档次召唤出2个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中1万及以上档次召唤出4个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中3万及以上档次累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中1万及以上档次消除1次孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中1万及以上档次消除1次唐僧</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中1万及以上档次召唤出1个英雄</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三国消消乐中1万及以上档次触发1次火烧赤壁</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三国消消乐中1万及以上档次触发1次草船借箭</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中连胜3局</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_2",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3,64,65,66,67,68,69,70,71,72,73</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,74,75,76,77,78,79,80,81,82,83</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,17 +1180,20 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -808,12 +1201,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -821,159 +1216,38 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,13 +1256,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,13 +1274,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,19 +1298,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,170 +1314,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1232,254 +1338,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1490,10 +1357,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,7 +1388,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,86 +1403,53 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1873,19 +1707,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1898,158 +1732,158 @@
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" spans="1:7">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31">
-        <v>1</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:5">
+      <c r="E2" s="30">
+        <v>1</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:5">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
@@ -2059,7 +1893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2076,14 +1910,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:5">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D11" t="s">
@@ -2093,23 +1927,56 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -2117,156 +1984,156 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="26" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="25" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
-      </c>
-      <c r="D2" s="30">
+      <c r="C2" s="29">
         <v>0</v>
       </c>
-      <c r="E2" s="30">
-        <v>1</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="29">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29">
+        <v>1</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="29">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="30">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30">
-        <v>1</v>
-      </c>
-      <c r="E3" s="30">
-        <v>1</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="29">
-        <v>3</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="C4" s="31">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C5" s="32">
         <v>0</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D5" s="32">
         <v>0</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E5" s="32">
         <v>0</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="35">
-        <v>4</v>
-      </c>
-      <c r="B5" s="31" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C6" s="31">
         <v>0</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D6" s="32">
         <v>0</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E6" s="32">
         <v>0</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="29">
-        <v>5</v>
-      </c>
-      <c r="B6" s="31" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C7" s="32">
         <v>0</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D7" s="32">
         <v>0</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E7" s="32">
         <v>0</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="29">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="33">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
-        <v>0</v>
-      </c>
-      <c r="E7" s="33">
-        <v>0</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C8">
@@ -2278,9 +2145,9 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2296,11 +2163,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2316,11 +2183,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2336,29 +2203,67 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>49</v>
+      <c r="G11" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
@@ -2382,66 +2287,66 @@
     <col min="20" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1" spans="1:19">
+    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:19">
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2449,22 +2354,22 @@
         <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="8"/>
@@ -2474,7 +2379,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:19">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2482,22 +2387,22 @@
         <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="8"/>
@@ -2509,7 +2414,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:19">
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2517,22 +2422,22 @@
         <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>78</v>
-      </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
@@ -2542,7 +2447,7 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:19">
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2550,22 +2455,22 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8"/>
@@ -2575,7 +2480,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:19">
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2583,22 +2488,22 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="8"/>
@@ -2608,7 +2513,7 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:19">
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2616,22 +2521,22 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
@@ -2642,7 +2547,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:9">
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2650,26 +2555,26 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:9">
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2677,26 +2582,26 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:9">
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2704,26 +2609,26 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2734,23 +2639,23 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:9">
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2758,26 +2663,26 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:9">
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2785,26 +2690,26 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:9">
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2812,26 +2717,26 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:9">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2839,26 +2744,26 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:9">
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2866,26 +2771,26 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:9">
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2893,26 +2798,26 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:9">
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2920,26 +2825,26 @@
         <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:9">
+    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2947,26 +2852,26 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:9">
+    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2974,26 +2879,26 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:9">
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3004,23 +2909,23 @@
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:15">
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3031,30 +2936,30 @@
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="I22" s="15"/>
       <c r="L22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:15">
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3065,30 +2970,30 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="H23" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I23" s="15"/>
       <c r="L23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:15">
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3099,30 +3004,30 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="H24" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I24" s="15"/>
       <c r="L24" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:13">
+    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3133,29 +3038,29 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="H25" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I25" s="15"/>
       <c r="L25" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3166,29 +3071,29 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="H26" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I26" s="15"/>
       <c r="L26" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3199,29 +3104,29 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H27" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I27" s="15"/>
       <c r="L27" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3232,29 +3137,29 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="H28" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I28" s="22"/>
       <c r="L28" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3265,23 +3170,23 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:9">
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3292,23 +3197,23 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:15">
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3319,25 +3224,25 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="H31" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="I31" s="22"/>
       <c r="M31" s="12"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:15">
+    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3348,25 +3253,25 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="I32" s="22"/>
       <c r="M32" s="12"/>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:13">
+    <row r="33" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3377,24 +3282,24 @@
         <v>88</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" s="22"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:9">
+    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3405,23 +3310,23 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:9">
+    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -3432,23 +3337,23 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:9">
+    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3459,23 +3364,23 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:9">
+    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3486,23 +3391,23 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3513,22 +3418,22 @@
         <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3539,22 +3444,22 @@
         <v>100000</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3565,22 +3470,22 @@
         <v>300000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>52</v>
       </c>
@@ -3591,22 +3496,22 @@
         <v>600</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -3617,22 +3522,22 @@
         <v>1000000</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="H42" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -3643,22 +3548,22 @@
         <v>3000000</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E43" s="3">
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>53</v>
       </c>
@@ -3669,22 +3574,22 @@
         <v>4800</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -3695,22 +3600,22 @@
         <v>10000000</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E45" s="3">
         <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -3721,22 +3626,22 @@
         <v>20000000</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E46" s="3">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>54</v>
       </c>
@@ -3747,22 +3652,22 @@
         <v>19800</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -3773,22 +3678,22 @@
         <v>35000000</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E48" s="3">
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -3799,22 +3704,22 @@
         <v>80000000</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E49" s="3">
         <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>55</v>
       </c>
@@ -3825,22 +3730,22 @@
         <v>88800</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E50" s="3">
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>46</v>
       </c>
@@ -3851,22 +3756,22 @@
         <v>200000000</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E51" s="3">
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>47</v>
       </c>
@@ -3877,22 +3782,22 @@
         <v>800000000</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E52" s="3">
         <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>56</v>
       </c>
@@ -3903,22 +3808,22 @@
         <v>188800</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E53" s="3">
         <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>48</v>
       </c>
@@ -3929,22 +3834,22 @@
         <v>2000000000</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E54" s="3">
         <v>11</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>57</v>
       </c>
@@ -3955,22 +3860,22 @@
         <v>588800</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E55" s="3">
         <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>49</v>
       </c>
@@ -3981,22 +3886,22 @@
         <v>4000000000</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E56" s="3">
         <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>58</v>
       </c>
@@ -4007,22 +3912,22 @@
         <v>1000000</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E57" s="3">
         <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>50</v>
       </c>
@@ -4033,22 +3938,22 @@
         <v>8000000000</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E58" s="3">
         <v>13</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>59</v>
       </c>
@@ -4059,22 +3964,22 @@
         <v>1888800</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E59" s="3">
         <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>51</v>
       </c>
@@ -4085,23 +3990,23 @@
         <v>20000000000</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E60" s="3">
         <v>14</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="40">
         <v>60</v>
       </c>
       <c r="B61" s="13">
@@ -4111,23 +4016,23 @@
         <v>3000000</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G61" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>204</v>
-      </c>
       <c r="H61" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="40">
         <v>61</v>
       </c>
       <c r="B62" s="13">
@@ -4137,23 +4042,23 @@
         <v>20000000</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E62" s="3">
         <v>2</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="40">
         <v>62</v>
       </c>
       <c r="B63" s="13">
@@ -4163,242 +4068,684 @@
         <v>50000000</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
       </c>
       <c r="F63" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="40">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13">
+        <v>1000705</v>
+      </c>
+      <c r="C64" s="13">
+        <v>1</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" s="13">
+        <v>1</v>
+      </c>
+      <c r="F64" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="40">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13">
+        <v>1000706</v>
+      </c>
+      <c r="C65" s="13">
+        <v>100000</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" s="13">
+        <v>1</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="40">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13">
+        <v>1000706</v>
+      </c>
+      <c r="C66" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" s="13">
+        <v>2</v>
+      </c>
+      <c r="F66" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="40">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13">
+        <v>1000707</v>
+      </c>
+      <c r="C67" s="13">
+        <v>10</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="13">
+        <v>1</v>
+      </c>
+      <c r="F67" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G67" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="H67" s="41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="40">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13">
+        <v>1000708</v>
+      </c>
+      <c r="C68" s="13">
+        <v>10</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E68" s="13">
+        <v>1</v>
+      </c>
+      <c r="F68" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G68" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="H68" s="41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="40">
+        <v>68</v>
+      </c>
+      <c r="B69" s="13">
+        <v>1000709</v>
+      </c>
+      <c r="C69" s="13">
+        <v>100</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" s="13">
+        <v>1</v>
+      </c>
+      <c r="F69" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="40">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13">
+        <v>1000710</v>
+      </c>
+      <c r="C70" s="13">
+        <v>100</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E70" s="13">
+        <v>1</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="40">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13">
+        <v>1000711</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="13">
+        <v>1</v>
+      </c>
+      <c r="F71" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G71" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H71" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="40">
+        <v>71</v>
+      </c>
+      <c r="B72" s="13">
+        <v>1000712</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" s="13">
+        <v>1</v>
+      </c>
+      <c r="F72" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G72" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="40">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13">
+        <v>1000713</v>
+      </c>
+      <c r="C73" s="13">
+        <v>2</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E73" s="13">
+        <v>1</v>
+      </c>
+      <c r="F73" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G73" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="H73" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="40">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13">
+        <v>1000713</v>
+      </c>
+      <c r="C74" s="13">
+        <v>4</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" s="13">
+        <v>2</v>
+      </c>
+      <c r="F74" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G74" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="40">
+        <v>74</v>
+      </c>
+      <c r="B75" s="13">
+        <v>1000714</v>
+      </c>
+      <c r="C75" s="13">
+        <v>100</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E75" s="13">
+        <v>1</v>
+      </c>
+      <c r="F75" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G75" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H75" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="40">
+        <v>75</v>
+      </c>
+      <c r="B76" s="13">
+        <v>1000715</v>
+      </c>
+      <c r="C76" s="13">
+        <v>100</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E76" s="13">
+        <v>1</v>
+      </c>
+      <c r="F76" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G76" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="H76" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="40">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13">
+        <v>1000716</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E77" s="13">
+        <v>1</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G77" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="H77" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="40">
+        <v>77</v>
+      </c>
+      <c r="B78" s="13">
+        <v>1000717</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E78" s="13">
+        <v>1</v>
+      </c>
+      <c r="F78" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G78" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="H78" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="40">
+        <v>78</v>
+      </c>
+      <c r="B79" s="13">
+        <v>1000718</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="13">
+        <v>1</v>
+      </c>
+      <c r="F79" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G79" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H79" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="40">
+        <v>79</v>
+      </c>
+      <c r="B80" s="13">
+        <v>1000718</v>
+      </c>
+      <c r="C80" s="13">
+        <v>4</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" s="13">
+        <v>2</v>
+      </c>
+      <c r="F80" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G80" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="H80" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="40">
+        <v>80</v>
+      </c>
+      <c r="B81" s="13">
+        <v>1000719</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="13">
+        <v>1</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="H81" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="40">
+        <v>81</v>
+      </c>
+      <c r="B82" s="13">
+        <v>1000720</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" s="13">
+        <v>1</v>
+      </c>
+      <c r="F82" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G82" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H82" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="40">
+        <v>82</v>
+      </c>
+      <c r="B83" s="13">
+        <v>1000721</v>
+      </c>
+      <c r="C83" s="13">
+        <v>3</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" s="13">
+        <v>3</v>
+      </c>
+      <c r="F83" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G83" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H83" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="40">
+        <v>83</v>
+      </c>
+      <c r="B84" s="13">
+        <v>1000722</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E84" s="13">
+        <v>1</v>
+      </c>
+      <c r="F84" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G84" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H84" s="41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="40"/>
+    </row>
+    <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="40"/>
+    </row>
+    <row r="87" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="40"/>
+    </row>
+    <row r="88" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="40"/>
+    </row>
+    <row r="89" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="40"/>
+    </row>
+    <row r="90" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="40"/>
+    </row>
+    <row r="91" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="40"/>
+      <c r="L91" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M91" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="40"/>
+      <c r="L92" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M92" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G63" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="24"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="24"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="24"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="24"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="24"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="24"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="24"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="24"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="24"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="24"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="24"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="24"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="15"/>
-      <c r="B83" s="24"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="15"/>
-      <c r="B84" s="24"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="24"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="15"/>
-      <c r="B86" s="24"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="15"/>
-      <c r="B87" s="24"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="15"/>
-      <c r="B88" s="24"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="15"/>
-      <c r="B89" s="24"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="15"/>
-      <c r="B90" s="24"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="15"/>
-      <c r="B91" s="24"/>
-      <c r="L91" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M91" s="3" t="s">
+    </row>
+    <row r="93" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="40"/>
+      <c r="L93" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M93" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="40"/>
+      <c r="L94" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M94" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="40"/>
+      <c r="L95" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M95" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="40"/>
+      <c r="L96" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M96" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="15"/>
-      <c r="B92" s="24"/>
-      <c r="L92" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="15"/>
-      <c r="B93" s="24"/>
-      <c r="L93" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="15"/>
-      <c r="B94" s="24"/>
-      <c r="L94" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="15"/>
-      <c r="B95" s="24"/>
-      <c r="L95" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="15"/>
-      <c r="B96" s="24"/>
-      <c r="L96" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="15"/>
-      <c r="B97" s="24"/>
-      <c r="L97" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="15"/>
-      <c r="B98" s="24"/>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="15"/>
-      <c r="B99" s="24"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="15"/>
-      <c r="B100" s="24"/>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="15"/>
-      <c r="B101" s="24"/>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="15"/>
-      <c r="B102" s="24"/>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="15"/>
-      <c r="B103" s="24"/>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="15"/>
-      <c r="B104" s="24"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="15"/>
-      <c r="B105" s="24"/>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="15"/>
-      <c r="B106" s="24"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="15"/>
-      <c r="B107" s="24"/>
-    </row>
+    <row r="97" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="40"/>
+      <c r="L97" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M97" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="40"/>
+    </row>
+    <row r="99" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="40"/>
+    </row>
+    <row r="100" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="40"/>
+    </row>
+    <row r="101" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="40"/>
+    </row>
+    <row r="102" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="40"/>
+    </row>
+    <row r="103" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="40"/>
+    </row>
+    <row r="104" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="40"/>
+    </row>
+    <row r="105" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="40"/>
+    </row>
+    <row r="106" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="40"/>
+    </row>
+    <row r="107" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="40"/>
+    </row>
+    <row r="108" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>